--- a/patient_data/patient_27.xlsx
+++ b/patient_data/patient_27.xlsx
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1762,43 +1762,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1839,43 +1839,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2257,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
